--- a/medicine/Premiers secours et secourisme/Services_d'ambulance_en_Belgique/Services_d'ambulance_en_Belgique.xlsx
+++ b/medicine/Premiers secours et secourisme/Services_d'ambulance_en_Belgique/Services_d'ambulance_en_Belgique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Services_d%27ambulance_en_Belgique</t>
+          <t>Services_d'ambulance_en_Belgique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caractéristiques extérieures des ambulances en BelgiqueAmbulances de l'aide médicale urgenteAmbulances intermédiairesAmbulances pour le transport non urgent de patients (en Flandre)
 Comme de nombreux autres pays, la Belgique compte deux types bien distincts d'ambulances.  
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Services_d%27ambulance_en_Belgique</t>
+          <t>Services_d'ambulance_en_Belgique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1934, les corps de pompiers communaux de Bruxelles, Anderlecht, Schaerbeek, Molenbeek-Saint-Jean et Ixelles (qui fusionneront en 1973 pour devenir le service d'incendie de l'agglomération de Bruxelles) sont parmi les 12 corps de pompiers du pays à assurer le premier service d'ambulances pour l'aide médicale urgente[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1934, les corps de pompiers communaux de Bruxelles, Anderlecht, Schaerbeek, Molenbeek-Saint-Jean et Ixelles (qui fusionneront en 1973 pour devenir le service d'incendie de l'agglomération de Bruxelles) sont parmi les 12 corps de pompiers du pays à assurer le premier service d'ambulances pour l'aide médicale urgente.
 En 1954 survient une épidémie de poliomyélite à la suite de laquelle le ministre de la santé publique de l'époque, Edmond Leburton, décide de créer un service national de secours composé d'une quinzaine d'ambulances pour permettre la prise en charge des malades, mais également d'autres pathologies, notamment traumatiques après le constat de l'augmentation des accidents de la route dus à l’augmentation du trafic routier dans cette période d'après-guerre. Bien vite surgit alors la nécessité de disposer d'un numéro de téléphone national gratuit pour contacter ce service d'urgence. Les chsoes évoluent avec la loi du 8 avril 1958 qui charge les Commission d'Assistance Publique (C.A.P.) soit d'organiser le transport des malades et des blessés vers les établissements hospitaliers, soit de conclure, dans le même but, une convention avec un organisme public (C.A.P. voisine, pompiers, police, etc.) ou privé.
 En 1959, Anvers accueille la première centrale téléphonique de réception d’appels d’urgence, mise en place à titre expérimental.
 </t>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Services_d%27ambulance_en_Belgique</t>
+          <t>Services_d'ambulance_en_Belgique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Les ambulances « 112 » ou « AMU »</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ambulances 112 sont régies et envoyées uniquement par les centrales du numéro d'appel d'urgence 112. Elles sont attachés à un service d’incendie, à la Croix-Rouge de Belgique, à certains hôpitaux, ou à une organisation privée conventionnée. 
 Elles dépendent du service public fédéral Santé publique et doivent être agréées par ce dernier. 
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Services_d%27ambulance_en_Belgique</t>
+          <t>Services_d'ambulance_en_Belgique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,12 +597,14 @@
           <t>Les ambulances « transports secondaires »</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ambulances effectuant les transports secondaires sont, en grande partie, des ambulances provenant de société privée.  
-En Région wallonne, elles doivent être agréées par l'AViQ. (Décret et arrêté wallon relatif à l'organisation du Transport Médico-Sanitaire)[2]. 
+En Région wallonne, elles doivent être agréées par l'AViQ. (Décret et arrêté wallon relatif à l'organisation du Transport Médico-Sanitaire). 
 Pour exercer en Wallonie, le personnel ambulancier, doit avoir réussi une formation paramédicale appelée « TMS » (Transport Médico-Sanitaire).
-Depuis le 1er septembre 2020, un agrément est obligatoire pour exercer légalement cette profession en Belgique[3].
+Depuis le 1er septembre 2020, un agrément est obligatoire pour exercer légalement cette profession en Belgique.
 Cet agrément permet aux ambulanciers d'obtenir un visa du SPF Santé Publique.
 </t>
         </is>
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Services_d%27ambulance_en_Belgique</t>
+          <t>Services_d'ambulance_en_Belgique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Les services SMUR &amp; PIT</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les véhicules  du SMUR ne sont pas des ambulances. Ils interviennent généralement conjointement à la mission de celle-ci mais ne transportent pas de patients. Ils disposent à leur bord de matériel plus sophistiqué qu'à bord de l'ambulance ainsi qu'une équipe médicale composée au minimum d'un médecin urgentiste et d'un infirmier(ère) SISU (pour Soins Intensifs et Soins d'Urgences). (Ce qui signifie que ce dernier a fait une année de spécialisation dite « SIAMU » (pour Soins intensifs et Aide médicale urgente qui est une 5ème année des études d'infirmier en Belgique). 
 Il existe aussi en Belgique un nouveau système, appelé Paramedical Intervention Team (traduis de l'anglais: équipe d'intervention paramédicale), souvent abrégé en « PIT ». Contrairement à un SMUR, l'équipe d'un PIT se déplace dans sa propre ambulance. Il n'y a de surcroît pas de médecin à bord, juste un infirmier SIAMU (titre SISU) ainsi que deux secouristes-ambulanciers réguliers. 
@@ -630,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Services_d%27ambulance_en_Belgique</t>
+          <t>Services_d'ambulance_en_Belgique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,6 +669,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
